--- a/NIH_Tools/Peak_Discharge/peak_allwatershed.xlsx
+++ b/NIH_Tools/Peak_Discharge/peak_allwatershed.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHAT_YOU_DID\Neer\Peak Runoff Computation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="11415" windowHeight="5145"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="iwmp-16" sheetId="3" r:id="rId3"/>
     <sheet name="iwmp-17" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>WS CODE</t>
   </si>
@@ -76,13 +71,25 @@
   </si>
   <si>
     <t>WS_CODE</t>
+  </si>
+  <si>
+    <t>C -&gt; Runnoff Coeficient</t>
+  </si>
+  <si>
+    <t>I -&gt; Intensity of Rainfall</t>
+  </si>
+  <si>
+    <t>A -&gt; Area of Watershead</t>
+  </si>
+  <si>
+    <t>Qp -&gt; Peak Discharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,10 +229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,16 +438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -479,8 +487,11 @@
         <f>(B2*C2*D2)/360</f>
         <v>25.676002283555555</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -496,8 +507,11 @@
       <c r="E3" s="2">
         <v>56.906711605333342</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -513,8 +527,11 @@
       <c r="E4" s="2">
         <v>26.378680658333334</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -530,8 +547,11 @@
       <c r="E5" s="2">
         <v>18.53533446777778</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -548,7 +568,7 @@
         <v>35.477226705</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -565,7 +585,7 @@
         <v>51.57498975902778</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -582,7 +602,7 @@
         <v>49.325618635416667</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -599,7 +619,7 @@
         <v>30.773182208888883</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -616,7 +636,7 @@
         <v>42.759110210833335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -639,16 +659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -682,7 +702,7 @@
         <v>29.606453649490273</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +719,7 @@
         <v>35.199184056306677</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,7 +736,7 @@
         <v>28.249788318726409</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -733,7 +753,7 @@
         <v>24.14178245183119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -750,7 +770,7 @@
         <v>31.242846343857618</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -773,16 +793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -802,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -822,7 +842,7 @@
         <v>13.800360532491855</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -842,7 +862,7 @@
         <v>40.343063056489449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -862,7 +882,7 @@
         <v>17.066248568625682</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -882,7 +902,7 @@
         <v>23.995286950539342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -902,7 +922,7 @@
         <v>31.689799535280279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -922,7 +942,7 @@
         <v>36.166982426392323</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -948,16 +968,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -977,7 +997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1017,7 @@
         <v>31.346090225250844</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1037,7 @@
         <v>36.487835929652356</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>36.638711957325505</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>43.098652774331526</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1097,7 @@
         <v>25.528197832640799</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1117,7 @@
         <v>43.156604664378122</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1137,7 @@
         <v>30.138714058148153</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
